--- a/employees_export.xlsx
+++ b/employees_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzhed\OneDrive\Desktop\hikvision_camera_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0519BC94-0170-43CA-A97A-EE5028203EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D42B6C0-1280-448C-9FAE-61BDC8386772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сотрудники" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="1037">
   <si>
     <t>Employee ID</t>
   </si>
@@ -2968,29 +2968,176 @@
     <t>Раймова Сафия</t>
   </si>
   <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>Курман Назерке</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Актанова Назерке</t>
+  </si>
+  <si>
     <t>401</t>
   </si>
   <si>
     <t>Маринкин Николай</t>
   </si>
   <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>Сабырбек Ерназ</t>
+  </si>
+  <si>
     <t>403</t>
   </si>
   <si>
     <t>Камалов Амражан</t>
   </si>
   <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>Мусина Альбина</t>
+  </si>
+  <si>
     <t>405</t>
   </si>
   <si>
     <t>Едил Казына</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>Дуйсеналиева Жазира</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>Жумали Жанибек</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>Ли Елена</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>Фасхутдинов Адик</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>Игнатьев Александр</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>Джангабатова Роза</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>Морозов Андрей</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>Жумахынова Бакытгул</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>Шора Таншолпан</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>Ганджаев Максад</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>Егизбаев Багжан</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>Кожабергенова Карлыгаш</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>Алаев Асфар</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>Турсын Алихан</t>
+  </si>
+  <si>
+    <t>Шеф</t>
+  </si>
+  <si>
+    <t>07:00-23:00</t>
+  </si>
+  <si>
+    <t>07:00-23:01</t>
+  </si>
+  <si>
+    <t>07:00-23:02</t>
+  </si>
+  <si>
+    <t>07:00-23:03</t>
+  </si>
+  <si>
+    <t>Технолог</t>
+  </si>
+  <si>
+    <t>АУП/Baton/Технологи</t>
+  </si>
+  <si>
+    <t>АУП/Wellness spa/Банщицы Wellness spa</t>
+  </si>
+  <si>
+    <t>Банщица Wellness spa</t>
+  </si>
+  <si>
+    <t>Повар мясного цеха</t>
+  </si>
+  <si>
+    <t>Повар Горячего цеха</t>
+  </si>
+  <si>
+    <t>АУП/Фуд сервис/Менеджера по стандартицазии</t>
+  </si>
+  <si>
+    <t>Менеджер по стандартицазии</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3003,6 +3150,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3338,13 +3491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H398"/>
+  <dimension ref="A1:H416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="B400" sqref="B400"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="D406" sqref="D406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="3" width="30" customWidth="1"/>
@@ -3355,7 +3508,7 @@
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3407,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3433,7 +3586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3459,7 +3612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3485,7 +3638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -3511,7 +3664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3537,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -3563,7 +3716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3589,7 +3742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3615,7 +3768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3641,7 +3794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -3667,7 +3820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3693,7 +3846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3719,7 +3872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3745,7 +3898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -3771,7 +3924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3797,7 +3950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3823,7 +3976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3849,7 +4002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3875,7 +4028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -3901,7 +4054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -3927,7 +4080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -3953,7 +4106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -3979,7 +4132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -4005,7 +4158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -4031,7 +4184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -4057,7 +4210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -4083,7 +4236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -4109,7 +4262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -4135,7 +4288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -4161,7 +4314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -4187,7 +4340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -4213,7 +4366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -4239,7 +4392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -4265,7 +4418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -4291,7 +4444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -4317,7 +4470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -4343,7 +4496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -4369,7 +4522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -4395,7 +4548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -4421,7 +4574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -4447,7 +4600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -4473,7 +4626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -4499,7 +4652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -4525,7 +4678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -4551,7 +4704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -4577,7 +4730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -4603,7 +4756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>138</v>
       </c>
@@ -4629,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -4655,7 +4808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -4681,7 +4834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>144</v>
       </c>
@@ -4707,7 +4860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -4733,7 +4886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -4759,7 +4912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -4785,7 +4938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -4811,7 +4964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -4837,7 +4990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -4863,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -4889,7 +5042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -4915,7 +5068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -4941,7 +5094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -4967,7 +5120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>172</v>
       </c>
@@ -4993,7 +5146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>174</v>
       </c>
@@ -5019,7 +5172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>176</v>
       </c>
@@ -5045,7 +5198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -5071,7 +5224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -5097,7 +5250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -5123,7 +5276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>189</v>
       </c>
@@ -5149,7 +5302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -5175,7 +5328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -5201,7 +5354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>195</v>
       </c>
@@ -5227,7 +5380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -5253,7 +5406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -5279,7 +5432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>205</v>
       </c>
@@ -5305,7 +5458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -5331,7 +5484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>211</v>
       </c>
@@ -5357,7 +5510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>214</v>
       </c>
@@ -5383,7 +5536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>216</v>
       </c>
@@ -5409,7 +5562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>219</v>
       </c>
@@ -5435,7 +5588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -5461,7 +5614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>225</v>
       </c>
@@ -5487,7 +5640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>229</v>
       </c>
@@ -5513,7 +5666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -5539,7 +5692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>234</v>
       </c>
@@ -5565,7 +5718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>237</v>
       </c>
@@ -5591,7 +5744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>240</v>
       </c>
@@ -5617,7 +5770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>242</v>
       </c>
@@ -5643,7 +5796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>244</v>
       </c>
@@ -5669,7 +5822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>247</v>
       </c>
@@ -5695,7 +5848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5721,7 +5874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -5747,7 +5900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>254</v>
       </c>
@@ -5773,7 +5926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>258</v>
       </c>
@@ -5799,7 +5952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>260</v>
       </c>
@@ -5825,7 +5978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>262</v>
       </c>
@@ -5851,7 +6004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>267</v>
       </c>
@@ -5877,7 +6030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>271</v>
       </c>
@@ -5903,7 +6056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>273</v>
       </c>
@@ -5929,7 +6082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>277</v>
       </c>
@@ -5955,7 +6108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>279</v>
       </c>
@@ -5981,7 +6134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>281</v>
       </c>
@@ -6007,7 +6160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>283</v>
       </c>
@@ -6033,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>285</v>
       </c>
@@ -6059,7 +6212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>287</v>
       </c>
@@ -6085,7 +6238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>291</v>
       </c>
@@ -6111,7 +6264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>293</v>
       </c>
@@ -6137,7 +6290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>295</v>
       </c>
@@ -6163,7 +6316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>297</v>
       </c>
@@ -6189,7 +6342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>303</v>
       </c>
@@ -6215,7 +6368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>305</v>
       </c>
@@ -6241,7 +6394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>307</v>
       </c>
@@ -6267,7 +6420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>309</v>
       </c>
@@ -6293,7 +6446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>311</v>
       </c>
@@ -6319,7 +6472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>313</v>
       </c>
@@ -6345,7 +6498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>317</v>
       </c>
@@ -6371,7 +6524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>319</v>
       </c>
@@ -6397,7 +6550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>321</v>
       </c>
@@ -6423,7 +6576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>323</v>
       </c>
@@ -6449,7 +6602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>325</v>
       </c>
@@ -6475,7 +6628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>327</v>
       </c>
@@ -6501,7 +6654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>329</v>
       </c>
@@ -6527,7 +6680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>331</v>
       </c>
@@ -6553,7 +6706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>333</v>
       </c>
@@ -6579,7 +6732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>335</v>
       </c>
@@ -6605,7 +6758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>336</v>
       </c>
@@ -6631,7 +6784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>338</v>
       </c>
@@ -6657,7 +6810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>342</v>
       </c>
@@ -6683,7 +6836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>344</v>
       </c>
@@ -6709,7 +6862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>346</v>
       </c>
@@ -6735,7 +6888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>348</v>
       </c>
@@ -6761,7 +6914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>350</v>
       </c>
@@ -6787,7 +6940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>354</v>
       </c>
@@ -6813,7 +6966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>356</v>
       </c>
@@ -6839,7 +6992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>358</v>
       </c>
@@ -6865,7 +7018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>360</v>
       </c>
@@ -6891,7 +7044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>362</v>
       </c>
@@ -6917,7 +7070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>364</v>
       </c>
@@ -6943,7 +7096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>366</v>
       </c>
@@ -6969,7 +7122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>368</v>
       </c>
@@ -6995,7 +7148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>370</v>
       </c>
@@ -7021,7 +7174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>372</v>
       </c>
@@ -7047,7 +7200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>376</v>
       </c>
@@ -7073,7 +7226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>380</v>
       </c>
@@ -7099,7 +7252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>382</v>
       </c>
@@ -7125,7 +7278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>384</v>
       </c>
@@ -7151,7 +7304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>386</v>
       </c>
@@ -7177,7 +7330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>388</v>
       </c>
@@ -7203,7 +7356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>392</v>
       </c>
@@ -7229,7 +7382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>396</v>
       </c>
@@ -7255,7 +7408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>398</v>
       </c>
@@ -7281,7 +7434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>400</v>
       </c>
@@ -7307,7 +7460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>402</v>
       </c>
@@ -7333,7 +7486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>404</v>
       </c>
@@ -7359,7 +7512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>406</v>
       </c>
@@ -7385,7 +7538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -7411,7 +7564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>412</v>
       </c>
@@ -7437,7 +7590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>414</v>
       </c>
@@ -7463,7 +7616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>416</v>
       </c>
@@ -7489,7 +7642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>418</v>
       </c>
@@ -7515,7 +7668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>420</v>
       </c>
@@ -7541,7 +7694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>422</v>
       </c>
@@ -7567,7 +7720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>424</v>
       </c>
@@ -7593,7 +7746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>426</v>
       </c>
@@ -7619,7 +7772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>428</v>
       </c>
@@ -7645,7 +7798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>430</v>
       </c>
@@ -7671,7 +7824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>432</v>
       </c>
@@ -7697,7 +7850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>436</v>
       </c>
@@ -7723,7 +7876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>438</v>
       </c>
@@ -7749,7 +7902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>440</v>
       </c>
@@ -7775,7 +7928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>442</v>
       </c>
@@ -7801,7 +7954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>444</v>
       </c>
@@ -7827,7 +7980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>446</v>
       </c>
@@ -7853,7 +8006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>448</v>
       </c>
@@ -7879,7 +8032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>450</v>
       </c>
@@ -7905,7 +8058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>452</v>
       </c>
@@ -7931,7 +8084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>454</v>
       </c>
@@ -7957,7 +8110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>458</v>
       </c>
@@ -7983,7 +8136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>463</v>
       </c>
@@ -8009,7 +8162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>465</v>
       </c>
@@ -8035,7 +8188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>467</v>
       </c>
@@ -8061,7 +8214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>469</v>
       </c>
@@ -8087,7 +8240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>471</v>
       </c>
@@ -8113,7 +8266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>473</v>
       </c>
@@ -8139,7 +8292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>475</v>
       </c>
@@ -8165,7 +8318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>477</v>
       </c>
@@ -8191,7 +8344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>479</v>
       </c>
@@ -8217,7 +8370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>481</v>
       </c>
@@ -8243,7 +8396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>483</v>
       </c>
@@ -8269,7 +8422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>485</v>
       </c>
@@ -8295,7 +8448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>489</v>
       </c>
@@ -8321,7 +8474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>491</v>
       </c>
@@ -8347,7 +8500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>493</v>
       </c>
@@ -8373,7 +8526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>495</v>
       </c>
@@ -8399,7 +8552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>497</v>
       </c>
@@ -8425,7 +8578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>499</v>
       </c>
@@ -8451,7 +8604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>502</v>
       </c>
@@ -8477,7 +8630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>504</v>
       </c>
@@ -8503,7 +8656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>506</v>
       </c>
@@ -8529,7 +8682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>510</v>
       </c>
@@ -8555,7 +8708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>513</v>
       </c>
@@ -8581,7 +8734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>516</v>
       </c>
@@ -8607,7 +8760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>519</v>
       </c>
@@ -8633,7 +8786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>523</v>
       </c>
@@ -8659,7 +8812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>526</v>
       </c>
@@ -8685,7 +8838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>530</v>
       </c>
@@ -8711,7 +8864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>532</v>
       </c>
@@ -8737,7 +8890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>534</v>
       </c>
@@ -8763,7 +8916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>539</v>
       </c>
@@ -8789,7 +8942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>541</v>
       </c>
@@ -8815,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>543</v>
       </c>
@@ -8841,7 +8994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>547</v>
       </c>
@@ -8867,7 +9020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>549</v>
       </c>
@@ -8893,7 +9046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>553</v>
       </c>
@@ -8919,7 +9072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>555</v>
       </c>
@@ -8945,7 +9098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>559</v>
       </c>
@@ -8971,7 +9124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>561</v>
       </c>
@@ -8997,7 +9150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>565</v>
       </c>
@@ -9023,7 +9176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>568</v>
       </c>
@@ -9049,7 +9202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>572</v>
       </c>
@@ -9075,7 +9228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>574</v>
       </c>
@@ -9101,7 +9254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>578</v>
       </c>
@@ -9127,7 +9280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>580</v>
       </c>
@@ -9153,7 +9306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>584</v>
       </c>
@@ -9179,7 +9332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>586</v>
       </c>
@@ -9205,7 +9358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>588</v>
       </c>
@@ -9231,7 +9384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>590</v>
       </c>
@@ -9257,7 +9410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>592</v>
       </c>
@@ -9283,7 +9436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>594</v>
       </c>
@@ -9309,7 +9462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>596</v>
       </c>
@@ -9335,7 +9488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>598</v>
       </c>
@@ -9361,7 +9514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>600</v>
       </c>
@@ -9387,7 +9540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>602</v>
       </c>
@@ -9413,7 +9566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>604</v>
       </c>
@@ -9439,7 +9592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>606</v>
       </c>
@@ -9465,7 +9618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>608</v>
       </c>
@@ -9491,7 +9644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>610</v>
       </c>
@@ -9517,7 +9670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>614</v>
       </c>
@@ -9543,7 +9696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>616</v>
       </c>
@@ -9569,7 +9722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>620</v>
       </c>
@@ -9595,7 +9748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>623</v>
       </c>
@@ -9621,7 +9774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>626</v>
       </c>
@@ -9647,7 +9800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>628</v>
       </c>
@@ -9673,7 +9826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>632</v>
       </c>
@@ -9699,7 +9852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>634</v>
       </c>
@@ -9725,7 +9878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>636</v>
       </c>
@@ -9751,7 +9904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>638</v>
       </c>
@@ -9777,7 +9930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>640</v>
       </c>
@@ -9803,7 +9956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>642</v>
       </c>
@@ -9829,7 +9982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>644</v>
       </c>
@@ -9855,7 +10008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>646</v>
       </c>
@@ -9881,7 +10034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>648</v>
       </c>
@@ -9907,7 +10060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>650</v>
       </c>
@@ -9933,7 +10086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>652</v>
       </c>
@@ -9959,7 +10112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>654</v>
       </c>
@@ -9985,7 +10138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>656</v>
       </c>
@@ -10011,7 +10164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>658</v>
       </c>
@@ -10037,7 +10190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>660</v>
       </c>
@@ -10063,7 +10216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>665</v>
       </c>
@@ -10089,7 +10242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>667</v>
       </c>
@@ -10115,7 +10268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>672</v>
       </c>
@@ -10141,7 +10294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>674</v>
       </c>
@@ -10167,7 +10320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>678</v>
       </c>
@@ -10193,7 +10346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>682</v>
       </c>
@@ -10219,7 +10372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>683</v>
       </c>
@@ -10245,7 +10398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>688</v>
       </c>
@@ -10271,7 +10424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>691</v>
       </c>
@@ -10297,7 +10450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>693</v>
       </c>
@@ -10323,7 +10476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>697</v>
       </c>
@@ -10349,7 +10502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>699</v>
       </c>
@@ -10375,7 +10528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>701</v>
       </c>
@@ -10401,7 +10554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>703</v>
       </c>
@@ -10427,7 +10580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>705</v>
       </c>
@@ -10453,7 +10606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>707</v>
       </c>
@@ -10479,7 +10632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>709</v>
       </c>
@@ -10505,7 +10658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>711</v>
       </c>
@@ -10531,7 +10684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>713</v>
       </c>
@@ -10557,7 +10710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>715</v>
       </c>
@@ -10583,7 +10736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>717</v>
       </c>
@@ -10609,7 +10762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>719</v>
       </c>
@@ -10635,7 +10788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>721</v>
       </c>
@@ -10661,7 +10814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>723</v>
       </c>
@@ -10687,7 +10840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>725</v>
       </c>
@@ -10713,7 +10866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>727</v>
       </c>
@@ -10739,7 +10892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>729</v>
       </c>
@@ -10765,7 +10918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>731</v>
       </c>
@@ -10791,7 +10944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>733</v>
       </c>
@@ -10817,7 +10970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>735</v>
       </c>
@@ -10843,7 +10996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>737</v>
       </c>
@@ -10869,7 +11022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>739</v>
       </c>
@@ -10895,7 +11048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>741</v>
       </c>
@@ -10921,7 +11074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>743</v>
       </c>
@@ -10947,7 +11100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>745</v>
       </c>
@@ -10973,7 +11126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>747</v>
       </c>
@@ -10999,7 +11152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>749</v>
       </c>
@@ -11025,7 +11178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>751</v>
       </c>
@@ -11051,7 +11204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>753</v>
       </c>
@@ -11077,7 +11230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>755</v>
       </c>
@@ -11103,7 +11256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>757</v>
       </c>
@@ -11129,7 +11282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>759</v>
       </c>
@@ -11155,7 +11308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>761</v>
       </c>
@@ -11181,7 +11334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>763</v>
       </c>
@@ -11207,7 +11360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>765</v>
       </c>
@@ -11233,7 +11386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>767</v>
       </c>
@@ -11259,7 +11412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>769</v>
       </c>
@@ -11285,7 +11438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>771</v>
       </c>
@@ -11311,7 +11464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>773</v>
       </c>
@@ -11337,7 +11490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>775</v>
       </c>
@@ -11363,7 +11516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>777</v>
       </c>
@@ -11389,7 +11542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>779</v>
       </c>
@@ -11415,7 +11568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>781</v>
       </c>
@@ -11441,7 +11594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>783</v>
       </c>
@@ -11467,7 +11620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>787</v>
       </c>
@@ -11493,7 +11646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>789</v>
       </c>
@@ -11519,7 +11672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>791</v>
       </c>
@@ -11545,7 +11698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>795</v>
       </c>
@@ -11571,7 +11724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>799</v>
       </c>
@@ -11597,7 +11750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>801</v>
       </c>
@@ -11623,7 +11776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>803</v>
       </c>
@@ -11649,7 +11802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>807</v>
       </c>
@@ -11675,7 +11828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>809</v>
       </c>
@@ -11701,7 +11854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>811</v>
       </c>
@@ -11727,7 +11880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>813</v>
       </c>
@@ -11753,7 +11906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>815</v>
       </c>
@@ -11779,7 +11932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>817</v>
       </c>
@@ -11805,7 +11958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>821</v>
       </c>
@@ -11831,7 +11984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>823</v>
       </c>
@@ -11857,7 +12010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>825</v>
       </c>
@@ -11883,7 +12036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>827</v>
       </c>
@@ -11909,7 +12062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>829</v>
       </c>
@@ -11935,7 +12088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>831</v>
       </c>
@@ -11961,7 +12114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>833</v>
       </c>
@@ -11987,7 +12140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>835</v>
       </c>
@@ -12013,7 +12166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>837</v>
       </c>
@@ -12039,7 +12192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>839</v>
       </c>
@@ -12065,7 +12218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>841</v>
       </c>
@@ -12091,7 +12244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>843</v>
       </c>
@@ -12117,7 +12270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>845</v>
       </c>
@@ -12143,7 +12296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>848</v>
       </c>
@@ -12169,7 +12322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>850</v>
       </c>
@@ -12195,7 +12348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>852</v>
       </c>
@@ -12221,7 +12374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>855</v>
       </c>
@@ -12247,7 +12400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>857</v>
       </c>
@@ -12273,7 +12426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>859</v>
       </c>
@@ -12299,7 +12452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>861</v>
       </c>
@@ -12325,7 +12478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>865</v>
       </c>
@@ -12351,7 +12504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>867</v>
       </c>
@@ -12377,7 +12530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>869</v>
       </c>
@@ -12403,7 +12556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>871</v>
       </c>
@@ -12429,7 +12582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>873</v>
       </c>
@@ -12455,7 +12608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>878</v>
       </c>
@@ -12481,7 +12634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>880</v>
       </c>
@@ -12507,7 +12660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>882</v>
       </c>
@@ -12533,7 +12686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>884</v>
       </c>
@@ -12559,7 +12712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>886</v>
       </c>
@@ -12585,7 +12738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>888</v>
       </c>
@@ -12611,7 +12764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>890</v>
       </c>
@@ -12637,7 +12790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>892</v>
       </c>
@@ -12663,7 +12816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>894</v>
       </c>
@@ -12689,7 +12842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>896</v>
       </c>
@@ -12715,7 +12868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>900</v>
       </c>
@@ -12741,7 +12894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>902</v>
       </c>
@@ -12767,7 +12920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>907</v>
       </c>
@@ -12793,7 +12946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>910</v>
       </c>
@@ -12819,7 +12972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>913</v>
       </c>
@@ -12845,7 +12998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>916</v>
       </c>
@@ -12871,7 +13024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>918</v>
       </c>
@@ -12897,7 +13050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>921</v>
       </c>
@@ -12923,7 +13076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>923</v>
       </c>
@@ -12949,7 +13102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>925</v>
       </c>
@@ -12975,7 +13128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>927</v>
       </c>
@@ -13001,7 +13154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>929</v>
       </c>
@@ -13027,7 +13180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>931</v>
       </c>
@@ -13053,7 +13206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>934</v>
       </c>
@@ -13079,7 +13232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>936</v>
       </c>
@@ -13105,7 +13258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>939</v>
       </c>
@@ -13131,7 +13284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>941</v>
       </c>
@@ -13157,7 +13310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>943</v>
       </c>
@@ -13183,7 +13336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>945</v>
       </c>
@@ -13209,7 +13362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>950</v>
       </c>
@@ -13235,7 +13388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>952</v>
       </c>
@@ -13261,7 +13414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>954</v>
       </c>
@@ -13287,7 +13440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>956</v>
       </c>
@@ -13313,7 +13466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>958</v>
       </c>
@@ -13339,7 +13492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>960</v>
       </c>
@@ -13365,7 +13518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>962</v>
       </c>
@@ -13391,7 +13544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>964</v>
       </c>
@@ -13417,7 +13570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>966</v>
       </c>
@@ -13443,7 +13596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>968</v>
       </c>
@@ -13469,7 +13622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>970</v>
       </c>
@@ -13495,7 +13648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>972</v>
       </c>
@@ -13521,7 +13674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>974</v>
       </c>
@@ -13547,7 +13700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>976</v>
       </c>
@@ -13573,7 +13726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>978</v>
       </c>
@@ -13599,63 +13752,580 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>980</v>
       </c>
       <c r="B395" t="s">
         <v>981</v>
       </c>
+      <c r="C395" t="s">
+        <v>315</v>
+      </c>
+      <c r="D395" t="s">
+        <v>316</v>
+      </c>
+      <c r="E395" t="s">
+        <v>301</v>
+      </c>
+      <c r="F395" t="s">
+        <v>302</v>
+      </c>
       <c r="G395">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>982</v>
       </c>
       <c r="B396" t="s">
         <v>983</v>
       </c>
+      <c r="C396" t="s">
+        <v>108</v>
+      </c>
+      <c r="D396" t="s">
+        <v>109</v>
+      </c>
+      <c r="E396" t="s">
+        <v>12</v>
+      </c>
+      <c r="F396" t="s">
+        <v>13</v>
+      </c>
       <c r="G396">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>984</v>
       </c>
       <c r="B397" t="s">
         <v>985</v>
       </c>
+      <c r="C397" t="s">
+        <v>108</v>
+      </c>
+      <c r="D397" t="s">
+        <v>109</v>
+      </c>
+      <c r="E397" t="s">
+        <v>12</v>
+      </c>
+      <c r="F397" t="s">
+        <v>13</v>
+      </c>
       <c r="G397">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>986</v>
       </c>
       <c r="B398" t="s">
         <v>987</v>
       </c>
+      <c r="C398" t="s">
+        <v>26</v>
+      </c>
+      <c r="D398" t="s">
+        <v>920</v>
+      </c>
+      <c r="E398" t="s">
+        <v>12</v>
+      </c>
+      <c r="F398" t="s">
+        <v>40</v>
+      </c>
       <c r="G398">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>988</v>
+      </c>
+      <c r="B399" t="s">
+        <v>989</v>
+      </c>
+      <c r="C399" t="s">
+        <v>199</v>
+      </c>
+      <c r="D399" t="s">
+        <v>227</v>
+      </c>
+      <c r="E399" t="s">
+        <v>12</v>
+      </c>
+      <c r="F399" t="s">
+        <v>40</v>
+      </c>
+      <c r="G399">
+        <v>10</v>
+      </c>
+      <c r="H399">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>990</v>
+      </c>
+      <c r="B400" t="s">
+        <v>991</v>
+      </c>
+      <c r="C400" t="s">
+        <v>199</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E400" t="s">
+        <v>12</v>
+      </c>
+      <c r="F400" t="s">
+        <v>40</v>
+      </c>
+      <c r="G400">
+        <v>10</v>
+      </c>
+      <c r="H400">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>992</v>
+      </c>
+      <c r="B401" t="s">
+        <v>993</v>
+      </c>
+      <c r="C401" t="s">
+        <v>819</v>
+      </c>
+      <c r="D401" t="s">
+        <v>820</v>
+      </c>
+      <c r="E401" t="s">
+        <v>12</v>
+      </c>
+      <c r="F401" t="s">
+        <v>13</v>
+      </c>
+      <c r="G401">
+        <v>10</v>
+      </c>
+      <c r="H401">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>994</v>
+      </c>
+      <c r="B402" t="s">
+        <v>995</v>
+      </c>
+      <c r="C402" t="s">
+        <v>695</v>
+      </c>
+      <c r="D402" t="s">
+        <v>696</v>
+      </c>
+      <c r="E402" t="s">
+        <v>12</v>
+      </c>
+      <c r="F402" t="s">
+        <v>13</v>
+      </c>
+      <c r="G402">
+        <v>10</v>
+      </c>
+      <c r="H402">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>996</v>
+      </c>
+      <c r="B403" t="s">
+        <v>997</v>
+      </c>
+      <c r="C403" t="s">
+        <v>65</v>
+      </c>
+      <c r="D403" t="s">
+        <v>118</v>
+      </c>
+      <c r="E403" t="s">
+        <v>12</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G403">
+        <v>10</v>
+      </c>
+      <c r="H403">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>998</v>
+      </c>
+      <c r="B404" t="s">
+        <v>999</v>
+      </c>
+      <c r="C404" t="s">
+        <v>65</v>
+      </c>
+      <c r="D404" t="s">
+        <v>118</v>
+      </c>
+      <c r="E404" t="s">
+        <v>12</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G404">
+        <v>10</v>
+      </c>
+      <c r="H404">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C405" t="s">
+        <v>65</v>
+      </c>
+      <c r="D405" t="s">
+        <v>118</v>
+      </c>
+      <c r="E405" t="s">
+        <v>12</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G405">
+        <v>10</v>
+      </c>
+      <c r="H405">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C406" t="s">
+        <v>65</v>
+      </c>
+      <c r="D406" t="s">
+        <v>118</v>
+      </c>
+      <c r="E406" t="s">
+        <v>12</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G406">
+        <v>10</v>
+      </c>
+      <c r="H406">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E407" t="s">
+        <v>12</v>
+      </c>
+      <c r="F407" t="s">
+        <v>154</v>
+      </c>
+      <c r="G407">
+        <v>10</v>
+      </c>
+      <c r="H407">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E408" t="s">
+        <v>12</v>
+      </c>
+      <c r="F408" t="s">
+        <v>671</v>
+      </c>
+      <c r="G408">
+        <v>10</v>
+      </c>
+      <c r="H408">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C409" t="s">
+        <v>199</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E409" t="s">
+        <v>12</v>
+      </c>
+      <c r="F409" t="s">
+        <v>13</v>
+      </c>
+      <c r="G409">
+        <v>10</v>
+      </c>
+      <c r="H409">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C410" t="s">
+        <v>315</v>
+      </c>
+      <c r="D410" t="s">
+        <v>316</v>
+      </c>
+      <c r="E410" t="s">
+        <v>301</v>
+      </c>
+      <c r="F410" t="s">
+        <v>302</v>
+      </c>
+      <c r="G410">
+        <v>10</v>
+      </c>
+      <c r="H410">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C411" t="s">
+        <v>199</v>
+      </c>
+      <c r="D411" t="s">
+        <v>236</v>
+      </c>
+      <c r="E411" t="s">
+        <v>12</v>
+      </c>
+      <c r="F411" t="s">
+        <v>13</v>
+      </c>
+      <c r="G411">
+        <v>10</v>
+      </c>
+      <c r="H411">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C412" t="s">
+        <v>199</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E412" t="s">
+        <v>12</v>
+      </c>
+      <c r="F412" t="s">
+        <v>13</v>
+      </c>
+      <c r="G412">
+        <v>10</v>
+      </c>
+      <c r="H412">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C413" t="s">
+        <v>199</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E413" t="s">
+        <v>12</v>
+      </c>
+      <c r="F413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G413">
+        <v>10</v>
+      </c>
+      <c r="H413">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C414" t="s">
+        <v>199</v>
+      </c>
+      <c r="D414" t="s">
+        <v>207</v>
+      </c>
+      <c r="E414" t="s">
+        <v>12</v>
+      </c>
+      <c r="F414" t="s">
+        <v>13</v>
+      </c>
+      <c r="G414">
+        <v>10</v>
+      </c>
+      <c r="H414">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E415" t="s">
+        <v>12</v>
+      </c>
+      <c r="F415" t="s">
+        <v>13</v>
+      </c>
+      <c r="G415">
+        <v>10</v>
+      </c>
+      <c r="H415">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C416" t="s">
+        <v>30</v>
+      </c>
+      <c r="D416" t="s">
+        <v>31</v>
+      </c>
+      <c r="E416" t="s">
+        <v>12</v>
+      </c>
+      <c r="F416" t="s">
+        <v>13</v>
+      </c>
+      <c r="G416">
+        <v>10</v>
+      </c>
+      <c r="H416">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>